--- a/feedback_analysis.xlsx
+++ b/feedback_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\College\Documents\Python Projects\honorscomps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2CC9AC-9708-43B6-93DE-5E8A4123F73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC79A70-3BEA-4680-AB5C-8EF5E74C0882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="252" yWindow="0" windowWidth="15552" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Detailed Results" sheetId="1" r:id="rId1"/>
@@ -4866,8 +4866,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P211"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" zoomScale="76" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="76" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14580,7 +14582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
